--- a/designs/2017-designs.xlsx
+++ b/designs/2017-designs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofcambridgecloud-my.sharepoint.com/personal/amp212_cam_ac_uk/Documents/Sakura/IIA/CX/GA3 Heat Exchangers/GA3-Project/designs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\code\GA3-Project\designs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="206" documentId="11_F25DC773A252ABDACC10488E611847AE5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0498AD39-B457-48B1-8AE7-3AFEB5BF9E41}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC3F5AA-BE73-4ACD-BCC3-1143EE452EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>Year</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>Pitch</t>
+  </si>
+  <si>
+    <t>across_c</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -424,31 +433,31 @@
   <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.9296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.06640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.46484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,13 +513,55 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2017</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>261</v>
+      </c>
+      <c r="G2">
+        <v>41</v>
+      </c>
+      <c r="H2">
+        <v>41</v>
+      </c>
+      <c r="I2">
+        <v>15.75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>45</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>34</v>
+      </c>
+      <c r="P2">
+        <v>34</v>
+      </c>
       <c r="Q2">
         <v>2017</v>
       </c>
@@ -518,13 +569,55 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2017</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>235.3</v>
+      </c>
+      <c r="G3">
+        <v>41</v>
+      </c>
+      <c r="H3">
+        <v>23</v>
+      </c>
+      <c r="I3">
+        <v>25.6</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="M3">
+        <v>55</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>33</v>
+      </c>
+      <c r="P3">
+        <v>16</v>
+      </c>
       <c r="Q3">
         <v>2017</v>
       </c>
@@ -532,13 +625,55 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2017</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>192</v>
+      </c>
+      <c r="G4">
+        <v>41</v>
+      </c>
+      <c r="H4">
+        <v>24</v>
+      </c>
+      <c r="I4">
+        <v>15.75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>42</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>32</v>
+      </c>
+      <c r="P4">
+        <v>32</v>
+      </c>
       <c r="Q4">
         <v>2017</v>
       </c>
@@ -546,13 +681,55 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2017</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
       </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>147</v>
+      </c>
+      <c r="G5">
+        <v>41</v>
+      </c>
+      <c r="H5">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>15.75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>58</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>32</v>
+      </c>
+      <c r="P5">
+        <v>32</v>
+      </c>
       <c r="Q5">
         <v>2017</v>
       </c>
@@ -560,12 +737,54 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2017</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>132</v>
+      </c>
+      <c r="G6">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>15.8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>60</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>25</v>
+      </c>
+      <c r="P6" t="s">
+        <v>25</v>
       </c>
       <c r="Q6">
         <v>2017</v>
